--- a/project_management/Gestión Scrum V1.xlsx
+++ b/project_management/Gestión Scrum V1.xlsx
@@ -5,13 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeChaNiCoX\Desktop\Gerencia de Proyectos Ciencia de Datos\Gestión\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mguerra\Documents\Documentos\ESTUDIO\3 semestre\GWEWNCIA PROYECTOS\repo\template_pcd\project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59CCB65-7C09-46B9-BAA1-C434856000C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD200D03-A4B2-4B86-A841-F9D2535830DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{66B3A9AC-AAF9-47A2-9F07-A5E607821642}"/>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="4" xr2:uid="{4E19635A-DA5E-4703-A8A2-65E00D5124CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{4E19635A-DA5E-4703-A8A2-65E00D5124CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="2" r:id="rId1"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="213">
   <si>
     <t>ID:</t>
   </si>
@@ -374,15 +373,6 @@
   </si>
   <si>
     <t>Leandro</t>
-  </si>
-  <si>
-    <t>Julián</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>Lucio</t>
   </si>
   <si>
     <t>analista de datos</t>
@@ -1425,6 +1415,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1443,31 +1451,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1476,25 +1469,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1511,22 +1501,31 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1536,9 +1535,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1546,6 +1542,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1568,40 +1582,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1623,7 +1613,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1941,12 +1931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5FD9F2-CEF5-4030-9194-349DFD9B6C79}">
   <dimension ref="B2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
@@ -1959,7 +1946,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>0</v>
@@ -1973,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D3" s="53"/>
       <c r="E3" s="53"/>
@@ -1983,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
@@ -1993,16 +1980,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
     </row>
     <row r="6" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="61"/>
+      <c r="B6" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="55"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2011,8 +1998,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2021,8 +2008,8 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2035,7 +2022,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>0</v>
@@ -2049,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
@@ -2059,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -2069,16 +2056,16 @@
         <v>3</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
     </row>
     <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="55"/>
+      <c r="B14" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="61"/>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2087,8 +2074,8 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
@@ -2097,8 +2084,8 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
@@ -2111,7 +2098,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>0</v>
@@ -2125,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D19" s="53"/>
       <c r="E19" s="53"/>
@@ -2135,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
@@ -2145,16 +2132,16 @@
         <v>3</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
     </row>
     <row r="22" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="55"/>
+      <c r="B22" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="61"/>
       <c r="D22" s="1" t="s">
         <v>4</v>
       </c>
@@ -2163,8 +2150,8 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
@@ -2173,8 +2160,8 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="1" t="s">
         <v>6</v>
       </c>
@@ -2187,7 +2174,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>0</v>
@@ -2201,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D27" s="53"/>
       <c r="E27" s="53"/>
@@ -2211,7 +2198,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D28" s="53"/>
       <c r="E28" s="53"/>
@@ -2221,16 +2208,16 @@
         <v>3</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D29" s="53"/>
       <c r="E29" s="53"/>
     </row>
     <row r="30" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="55"/>
+      <c r="B30" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="61"/>
       <c r="D30" s="1" t="s">
         <v>4</v>
       </c>
@@ -2239,8 +2226,8 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="56"/>
-      <c r="C31" s="57"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2249,8 +2236,8 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
@@ -2263,7 +2250,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>0</v>
@@ -2277,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D35" s="53"/>
       <c r="E35" s="53"/>
@@ -2287,7 +2274,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D36" s="53"/>
       <c r="E36" s="53"/>
@@ -2297,16 +2284,16 @@
         <v>3</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D37" s="53"/>
       <c r="E37" s="53"/>
     </row>
     <row r="38" spans="2:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="55"/>
+      <c r="B38" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="61"/>
       <c r="D38" s="1" t="s">
         <v>4</v>
       </c>
@@ -2315,8 +2302,8 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="56"/>
-      <c r="C39" s="57"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="1" t="s">
         <v>5</v>
       </c>
@@ -2325,8 +2312,8 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="58"/>
-      <c r="C40" s="59"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="1" t="s">
         <v>6</v>
       </c>
@@ -2339,7 +2326,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>0</v>
@@ -2353,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D43" s="53"/>
       <c r="E43" s="53"/>
@@ -2363,7 +2350,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D44" s="53"/>
       <c r="E44" s="53"/>
@@ -2373,16 +2360,16 @@
         <v>3</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D45" s="53"/>
       <c r="E45" s="53"/>
     </row>
     <row r="46" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="55"/>
+      <c r="B46" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="61"/>
       <c r="D46" s="1" t="s">
         <v>4</v>
       </c>
@@ -2391,8 +2378,8 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="56"/>
-      <c r="C47" s="57"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="1" t="s">
         <v>5</v>
       </c>
@@ -2401,8 +2388,8 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="58"/>
-      <c r="C48" s="59"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="1" t="s">
         <v>6</v>
       </c>
@@ -2412,21 +2399,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B14:C16"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B22:C24"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C45:E45"/>
@@ -2436,6 +2408,21 @@
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="B38:C40"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B22:C24"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B14:C16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2446,12 +2433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D782B57-CCA9-4652-9200-5167BE74FCCA}">
   <dimension ref="B3:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
@@ -2463,17 +2447,17 @@
       <c r="B3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
+      <c r="C3" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="77"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
@@ -2482,132 +2466,132 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="72"/>
+    </row>
+    <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="73"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="75"/>
+    </row>
+    <row r="9" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="75"/>
+    </row>
+    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="73"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="75"/>
+    </row>
+    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="75"/>
+    </row>
+    <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="68"/>
-    </row>
-    <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="66"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="67"/>
-    </row>
-    <row r="9" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="66"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="67"/>
-    </row>
-    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="D13" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="67" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="66"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="67"/>
-    </row>
-    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="66"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="5" t="s">
+    </row>
+    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="73"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="67"/>
-    </row>
-    <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="68" t="s">
+      <c r="E14" s="72"/>
+    </row>
+    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="66"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="68"/>
-    </row>
-    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="66"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="68"/>
+      <c r="E15" s="72"/>
     </row>
     <row r="17" spans="2:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
+      <c r="C17" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
     </row>
     <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
@@ -2616,72 +2600,73 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="66" t="s">
-        <v>117</v>
+      <c r="C19" s="73" t="s">
+        <v>114</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="67" t="s">
+    </row>
+    <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="75"/>
+    </row>
+    <row r="21" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="75"/>
+    </row>
+    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="67"/>
-    </row>
-    <row r="21" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" s="67"/>
-    </row>
-    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E22" s="68" t="s">
+      <c r="E23" s="72"/>
+    </row>
+    <row r="24" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="68"/>
-    </row>
-    <row r="24" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E24" s="68"/>
+      <c r="E24" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="E7:E9"/>
@@ -2693,12 +2678,11 @@
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="E13:E15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2708,12 +2692,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF60EA00-6ED8-4144-9693-08180CD211ED}">
   <dimension ref="B1:V990"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="24" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="24" customWidth="1"/>
@@ -2745,7 +2726,7 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="81" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G2" s="81"/>
       <c r="H2" s="81"/>
@@ -2769,30 +2750,30 @@
         <v>105</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="195" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F4" s="42">
         <v>5</v>
@@ -2811,7 +2792,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="V4" s="29">
         <v>8</v>
@@ -2819,16 +2800,16 @@
     </row>
     <row r="5" spans="2:22" ht="105" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F5" s="30">
         <v>13</v>
@@ -2855,13 +2836,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F6" s="30">
         <v>13</v>
@@ -2888,13 +2869,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F7" s="30">
         <v>5</v>
@@ -2921,13 +2902,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F8" s="30">
         <v>13</v>
@@ -2954,13 +2935,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F9" s="30">
         <v>3</v>
@@ -13797,12 +13778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D60C951-C78E-406B-ADD0-6DB17B5918B9}">
   <dimension ref="B1:G990"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="24" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="24" customWidth="1"/>
@@ -13846,7 +13824,7 @@
         <v>65</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G3" s="46" t="s">
         <v>23</v>
@@ -13854,13 +13832,13 @@
     </row>
     <row r="4" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>67</v>
@@ -13874,13 +13852,13 @@
     </row>
     <row r="5" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>67</v>
@@ -13897,10 +13875,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>67</v>
@@ -13917,10 +13895,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>67</v>
@@ -13937,13 +13915,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F8" s="29">
         <v>5</v>
@@ -13957,13 +13935,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F9" s="29">
         <v>6</v>
@@ -21838,13 +21816,10 @@
   <dimension ref="C1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I22"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
@@ -21858,10 +21833,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="84"/>
+      <c r="D1" s="111"/>
       <c r="E1" s="6" t="s">
         <v>70</v>
       </c>
@@ -21875,7 +21850,7 @@
         <v>71</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>66</v>
@@ -21885,362 +21860,362 @@
       </c>
     </row>
     <row r="2" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C2" s="85">
+      <c r="C2" s="99">
         <v>1</v>
       </c>
-      <c r="D2" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="88" t="s">
+      <c r="D2" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="88" t="s">
-        <v>113</v>
+      <c r="G2" s="101" t="s">
+        <v>110</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="I2" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="J2" s="90">
+        <v>184</v>
+      </c>
+      <c r="I2" s="87" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" s="93">
         <v>5</v>
       </c>
-      <c r="K2" s="90">
+      <c r="K2" s="93">
         <f>23</f>
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C3" s="85"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
       <c r="H3" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="88"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+    </row>
+    <row r="4" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="99"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="88"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+    </row>
+    <row r="5" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="99"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" s="88"/>
+      <c r="J5" s="93">
+        <v>13</v>
+      </c>
+      <c r="K5" s="94"/>
+    </row>
+    <row r="6" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C6" s="99"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="I3" s="110"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-    </row>
-    <row r="4" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C4" s="85"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="7" t="s">
+      <c r="I6" s="88"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+    </row>
+    <row r="7" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="99"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-    </row>
-    <row r="5" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="85"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="88" t="s">
+      <c r="I7" s="88"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+    </row>
+    <row r="8" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="99"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I8" s="88"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="94"/>
+    </row>
+    <row r="9" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C9" s="99"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I9" s="88"/>
+      <c r="J9" s="93">
+        <v>5</v>
+      </c>
+      <c r="K9" s="94"/>
+    </row>
+    <row r="10" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C10" s="99"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I10" s="88"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+    </row>
+    <row r="11" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C11" s="99"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" s="89"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+    </row>
+    <row r="12" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="106">
+        <v>2</v>
+      </c>
+      <c r="D12" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I12" s="90" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" s="96">
+        <v>13</v>
+      </c>
+      <c r="K12" s="96">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C13" s="107"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I13" s="91"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+    </row>
+    <row r="14" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="107"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14" s="91"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+    </row>
+    <row r="15" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" s="107"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="91"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="97"/>
+    </row>
+    <row r="16" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="C16" s="107"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="90">
+      <c r="H16" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="91"/>
+      <c r="J16" s="96">
         <v>13</v>
       </c>
-      <c r="K5" s="91"/>
-    </row>
-    <row r="6" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C6" s="85"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-    </row>
-    <row r="7" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="85"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-    </row>
-    <row r="8" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="85"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="I8" s="110"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="91"/>
-    </row>
-    <row r="9" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C9" s="85"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I9" s="110"/>
-      <c r="J9" s="90">
-        <v>5</v>
-      </c>
-      <c r="K9" s="91"/>
-    </row>
-    <row r="10" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C10" s="85"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="7" t="s">
+      <c r="K16" s="97"/>
+    </row>
+    <row r="17" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="107"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="I10" s="110"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-    </row>
-    <row r="11" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C11" s="85"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="7" t="s">
+      <c r="I17" s="92"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+    </row>
+    <row r="18" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="99">
+        <v>3</v>
+      </c>
+      <c r="D18" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="I11" s="111"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-    </row>
-    <row r="12" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="98">
-        <v>2</v>
-      </c>
-      <c r="D12" s="100" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>182</v>
-      </c>
-      <c r="F12" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="96" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I12" s="112" t="s">
-        <v>209</v>
-      </c>
-      <c r="J12" s="94">
-        <v>13</v>
-      </c>
-      <c r="K12" s="94">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C13" s="99"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I13" s="113"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-    </row>
-    <row r="14" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C14" s="99"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="I14" s="113"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-    </row>
-    <row r="15" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="99"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I15" s="113"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="95"/>
-    </row>
-    <row r="16" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C16" s="99"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="I18" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="J18" s="93">
+        <v>3</v>
+      </c>
+      <c r="K18" s="93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="I16" s="113"/>
-      <c r="J16" s="94">
-        <v>13</v>
-      </c>
-      <c r="K16" s="95"/>
-    </row>
-    <row r="17" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="99"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="4" t="s">
+      <c r="I19" s="88"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+    </row>
+    <row r="20" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="I17" s="114"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-    </row>
-    <row r="18" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="85">
-        <v>3</v>
-      </c>
-      <c r="D18" s="103" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="103" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="I20" s="88"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+    </row>
+    <row r="21" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I18" s="109" t="s">
-        <v>210</v>
-      </c>
-      <c r="J18" s="90">
-        <v>3</v>
-      </c>
-      <c r="K18" s="90">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="C19" s="85"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I19" s="110"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-    </row>
-    <row r="20" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C20" s="85"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I20" s="110"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-    </row>
-    <row r="21" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C21" s="85"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="I21" s="110"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="91"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="94"/>
     </row>
     <row r="22" spans="3:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="C22" s="85"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
       <c r="F22" s="37" t="s">
         <v>68</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="I22" s="111"/>
+        <v>204</v>
+      </c>
+      <c r="I22" s="89"/>
       <c r="J22" s="36">
         <v>5</v>
       </c>
-      <c r="K22" s="91"/>
+      <c r="K22" s="94"/>
     </row>
     <row r="23" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="106"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="86"/>
       <c r="K23" s="17">
         <f>SUM(K2:K22)</f>
         <v>57</v>
@@ -22248,18 +22223,20 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="I2:I11"/>
-    <mergeCell ref="I12:I17"/>
-    <mergeCell ref="I18:I22"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="K2:K11"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="J2:J4"/>
     <mergeCell ref="K12:K17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G16:G17"/>
@@ -22269,20 +22246,18 @@
     <mergeCell ref="E12:E17"/>
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="G12:G15"/>
-    <mergeCell ref="K2:K11"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="J12:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22295,12 +22270,9 @@
   </sheetPr>
   <dimension ref="C1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
@@ -22312,10 +22284,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="84"/>
+      <c r="D1" s="111"/>
       <c r="E1" s="6" t="s">
         <v>70</v>
       </c>
@@ -22329,330 +22301,340 @@
         <v>71</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C2" s="99">
+        <v>1</v>
+      </c>
+      <c r="D2" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" s="99"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="99"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="99"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C6" s="99"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="99"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C2" s="85">
-        <v>1</v>
-      </c>
-      <c r="D2" s="86" t="s">
+    <row r="8" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="99"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C9" s="99"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C10" s="99"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C11" s="99"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="106">
+        <v>2</v>
+      </c>
+      <c r="D12" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C13" s="107"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="107"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" s="107"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="C16" s="107"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="104" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="107"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="99">
+        <v>3</v>
+      </c>
+      <c r="D18" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="I2" s="16" t="s">
+      <c r="E18" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I18" s="16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C3" s="85"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="I3" s="16" t="s">
+    <row r="19" spans="3:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I19" s="16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C4" s="85"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="85"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C6" s="85"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="I6" s="16" t="s">
+    <row r="20" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I20" s="16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="85"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="85"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C9" s="85"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C10" s="85"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C11" s="85"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="98">
-        <v>2</v>
-      </c>
-      <c r="D12" s="100" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>182</v>
-      </c>
-      <c r="F12" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="96" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C13" s="99"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C14" s="99"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="99"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C16" s="99"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="I16" s="38" t="s">
+    <row r="21" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I21" s="16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="99"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="85">
-        <v>3</v>
-      </c>
-      <c r="D18" s="103" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="103" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" s="108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="C19" s="85"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C20" s="85"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C21" s="85"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
     <row r="22" spans="3:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="C22" s="85"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
       <c r="F22" s="8" t="s">
         <v>68</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="C18:C22"/>
@@ -22665,16 +22647,6 @@
     <mergeCell ref="E12:E17"/>
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="G12:G15"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22685,13 +22657,10 @@
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="27.42578125" customWidth="1"/>
@@ -22784,14 +22753,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1273832B-2EA0-4FC1-9A63-2AFB1E37C534}">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -22873,12 +22839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171F2B70-EF8E-42A3-826E-2FF04936C7A9}">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28" style="19" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
